--- a/Doc/SW Develop Schedule.xlsx
+++ b/Doc/SW Develop Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Part1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Item</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>Scheduler Viewer</t>
+  </si>
+  <si>
+    <t>Assets Schedule Log</t>
+  </si>
+  <si>
+    <t>Planed Hour</t>
+  </si>
+  <si>
+    <t>Actual Hour</t>
+  </si>
+  <si>
+    <t>Remained Sub Items</t>
+  </si>
+  <si>
+    <t>改变状态</t>
+  </si>
+  <si>
+    <t>用event来处理</t>
+  </si>
+  <si>
+    <t>OrderBy ThenBy</t>
+  </si>
+  <si>
+    <t>Assets Pool</t>
   </si>
 </sst>
 </file>
@@ -114,8 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,42 +437,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -453,31 +502,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -485,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -493,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -501,18 +559,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:11">
       <c r="B12">
         <f>SUM(B2:B10)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -586,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/Doc/SW Develop Schedule.xlsx
+++ b/Doc/SW Develop Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Part2" sheetId="3" r:id="rId2"/>
     <sheet name="Part3" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Item</t>
   </si>
@@ -103,18 +103,29 @@
   </si>
   <si>
     <t>Assets Pool</t>
+  </si>
+  <si>
+    <t>考虑不需要Chamber的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,15 +156,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -227,6 +243,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,22 +454,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +491,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -483,7 +502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -494,7 +513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -502,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -513,7 +532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -524,7 +543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -534,8 +553,11 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -543,7 +565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -551,7 +573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -559,13 +581,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B12">
         <f>SUM(B2:B10)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -574,25 +596,27 @@
   <mergeCells count="1">
     <mergeCell ref="D1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -600,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -608,7 +632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -616,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -624,7 +648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -632,31 +656,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7">
         <f>SUM(B2:B5)</f>
         <v>32</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -672,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -680,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -688,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -696,13 +721,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7">
         <f>SUM(B2:B5)</f>
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Doc/SW Develop Schedule.xlsx
+++ b/Doc/SW Develop Schedule.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -112,18 +112,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -156,7 +156,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -243,7 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -278,7 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,23 +452,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +490,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -502,7 +501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -513,7 +512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -521,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -532,7 +531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -543,7 +542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -557,7 +556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -565,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -573,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -581,13 +580,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="B12">
         <f>SUM(B2:B10)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -603,20 +602,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -624,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -632,7 +632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -648,7 +648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -656,7 +656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="B7">
         <f>SUM(B2:B5)</f>
         <v>32</v>
@@ -669,19 +669,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -697,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -705,7 +706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -713,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -721,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="B7">
         <f>SUM(B2:B5)</f>
         <v>16</v>
